--- a/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20242.xlsx
+++ b/docentes/Ángel Martínez Gerson Hermenegildo - Estadisticos 20242.xlsx
@@ -661,16 +661,19 @@
         <v>34</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>34</v>
       </c>
-      <c r="E2">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -684,16 +687,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>97.56</v>
+      </c>
+      <c r="H3">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -707,16 +713,19 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>97.56</v>
+      </c>
+      <c r="H4">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,16 +739,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -753,16 +765,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="H2">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -856,7 +871,7 @@
         <v>97.56</v>
       </c>
       <c r="H3">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -882,7 +897,7 @@
         <v>97.56</v>
       </c>
       <c r="H4">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -908,7 +923,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -934,7 +949,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1012,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1020,7 +1035,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
